--- a/docs/homebrewing/batches/batch_1/Batch_1_Brouwpunt_Witbier_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_1/Batch_1_Brouwpunt_Witbier_tasting_notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #1 - 01 Brouwpunt Witbier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #1 - Brouwpunt Witbier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93559674-5BA3-4515-AB00-007C42947FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30B38A2-6EAD-4BA2-A94F-95B0F2D33C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Bottling day</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Batch:</t>
   </si>
   <si>
-    <t>01 Brouwpunt - Witbier</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -81,6 +78,18 @@
   </si>
   <si>
     <t>cooled and served @ 11 C, light foam which dissolves quickly, very light carbonation, first taste is sour and aftertaste is a bit duh, probably past it's best before date.</t>
+  </si>
+  <si>
+    <t>cooled and served @ 11 C, light foam which dissolves quickly, very light carbonation, first taste is sour and aftertaste is past it's best before date.</t>
+  </si>
+  <si>
+    <t>Brouwpunt - Witbier</t>
+  </si>
+  <si>
+    <t>cooled and served @ 11 C, light foam which dissolves quickly, very high carbonation, first taste is sour and aftertaste is past it's best before date.</t>
+  </si>
+  <si>
+    <t>cooled and served @ 11 C, light foam which dissolves, very high carbonation, fresh dry mouthfeel and sweet/sour taste.</t>
   </si>
 </sst>
 </file>
@@ -100,7 +109,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -116,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,11 +132,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -136,32 +159,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,209 +488,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43972</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" ref="B7:B19" si="0">A7-$A$6</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43983</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>43996</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44017</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43972</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43978</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="shared" ref="B7:B16" si="0">A7-$A$6</f>
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="D10" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44030</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C11" s="5">
         <v>2.75</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43983</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44050</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43996</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C9" s="3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44077</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44092</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44107</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44126</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="C17" s="5">
         <v>2.5</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44017</v>
-      </c>
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44148</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="C18" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44030</v>
-      </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44050</v>
-      </c>
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44077</v>
-      </c>
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44092</v>
-      </c>
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="D18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44156</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="C19" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44107</v>
-      </c>
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44126</v>
-      </c>
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
+      <c r="D19" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/homebrewing/batches/batch_1/Batch_1_Brouwpunt_Witbier_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_1/Batch_1_Brouwpunt_Witbier_tasting_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #1 - Brouwpunt Witbier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30B38A2-6EAD-4BA2-A94F-95B0F2D33C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C6B34-477F-49E4-8E52-AFAB6B977BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasting Notes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Bottling day</t>
   </si>
@@ -180,6 +180,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -188,9 +191,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,34 +472,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="63.140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -508,16 +511,16 @@
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -550,7 +553,7 @@
         <v>43978</v>
       </c>
       <c r="B7" s="5">
-        <f t="shared" ref="B7:B19" si="0">A7-$A$6</f>
+        <f t="shared" ref="B7:B20" si="0">A7-$A$6</f>
         <v>6</v>
       </c>
       <c r="C7" s="5">
@@ -735,6 +738,21 @@
         <v>3</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44190</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -747,6 +765,6 @@
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/homebrewing/batches/batch_1/Batch_1_Brouwpunt_Witbier_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_1/Batch_1_Brouwpunt_Witbier_tasting_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #1 - Brouwpunt Witbier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C6B34-477F-49E4-8E52-AFAB6B977BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F2DB6F-0B6A-49DB-ABDB-F3DA9AC0B653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasting Notes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Bottling day</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>cooled and served @ 11 C, light foam which dissolves, very high carbonation, fresh dry mouthfeel and sweet/sour taste.</t>
+  </si>
+  <si>
+    <t>cooled and served @ 11 C, light foam which dissolves quickly, very high carbonation, fresh dry mouthfeel and sweet/sour taste.</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +556,7 @@
         <v>43978</v>
       </c>
       <c r="B7" s="5">
-        <f t="shared" ref="B7:B20" si="0">A7-$A$6</f>
+        <f t="shared" ref="B7:B21" si="0">A7-$A$6</f>
         <v>6</v>
       </c>
       <c r="C7" s="5">
@@ -754,6 +757,21 @@
       </c>
       <c r="D20" s="7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44212</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
